--- a/Patterns/schedule.xlsx
+++ b/Patterns/schedule.xlsx
@@ -5,34 +5,32 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xtstc131/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xtstc131/Documents/Trail/Leetcode/Patterns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E8D8098-7455-B845-8FD1-2DD4FFDFC856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A297F55-C01D-DA4A-9C33-4C9D6164395F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Task Schedule" sheetId="1" r:id="rId1"/>
     <sheet name="Weekly Task Schedule (2)" sheetId="5" r:id="rId2"/>
-    <sheet name="Task List" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Classes" localSheetId="1">TaskSchedule4[[#All],[Column1]]</definedName>
+    <definedName name="Classes" localSheetId="1">#REF!</definedName>
     <definedName name="Classes">TaskSchedule[[#All],[Column1]]</definedName>
-    <definedName name="ColumnTitle2" localSheetId="1">TaskList[[#Headers],[Date]]</definedName>
-    <definedName name="ColumnTitle2">TaskList[[#Headers],[Date]]</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Task List'!$3:$3</definedName>
+    <definedName name="ColumnTitle2" localSheetId="1">#REF!</definedName>
+    <definedName name="ColumnTitle2">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Weekly Task Schedule'!$4:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Weekly Task Schedule (2)'!$4:$5</definedName>
     <definedName name="RowTitleRegion1..I3" localSheetId="1">'Weekly Task Schedule (2)'!$H$3</definedName>
     <definedName name="RowTitleRegion1..I3">'Weekly Task Schedule'!$H$3</definedName>
     <definedName name="StartDate" localSheetId="1">'Weekly Task Schedule (2)'!$I$3</definedName>
     <definedName name="StartDate">'Weekly Task Schedule'!$I$3</definedName>
-    <definedName name="Title1" localSheetId="1">TaskSchedule4[[#All],[Column1]]</definedName>
+    <definedName name="Title1" localSheetId="1">#REF!</definedName>
     <definedName name="Title1">TaskSchedule[[#All],[Column1]]</definedName>
-    <definedName name="WhoField" localSheetId="1">TaskList[Class]</definedName>
-    <definedName name="WhoField">TaskList[Class]</definedName>
+    <definedName name="WhoField" localSheetId="1">#REF!</definedName>
+    <definedName name="WhoField">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>TASK SCHEDULE</t>
   </si>
@@ -57,73 +55,10 @@
     <t xml:space="preserve"> Schedule Start Date:</t>
   </si>
   <si>
-    <t>ENG 101</t>
-  </si>
-  <si>
-    <t>ART 101</t>
-  </si>
-  <si>
-    <t>MTH 101</t>
-  </si>
-  <si>
-    <t>LIT 101</t>
-  </si>
-  <si>
-    <t>HIS 101</t>
-  </si>
-  <si>
-    <t>OTHER</t>
-  </si>
-  <si>
-    <t>TASK LIST</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Assignment/Task</t>
-  </si>
-  <si>
-    <t>Match Data</t>
-  </si>
-  <si>
-    <t>Page 90 &amp; review chapter 5 for test on Friday</t>
-  </si>
-  <si>
-    <t>Worksheet 56 (odd only) and study for test on Thursday</t>
-  </si>
-  <si>
-    <t>Prep for Lab</t>
-  </si>
-  <si>
-    <t>Chapter 5 - 8 test</t>
-  </si>
-  <si>
-    <t>Pages 78 - 88 &amp; outline chapter 4</t>
-  </si>
-  <si>
-    <t>Study for test</t>
-  </si>
-  <si>
-    <t>Clean room for inspection</t>
-  </si>
-  <si>
-    <t>Order pizza for study group</t>
-  </si>
-  <si>
-    <t>Outline Essay</t>
-  </si>
-  <si>
     <t>WEEKLY</t>
   </si>
   <si>
     <t>To Task List</t>
-  </si>
-  <si>
-    <t>To Weekly Task Schedule</t>
   </si>
   <si>
     <t>Winter</t>
@@ -133,9 +68,6 @@
   </si>
   <si>
     <t>Revise</t>
-  </si>
-  <si>
-    <t> Sliding window</t>
   </si>
   <si>
     <t>two points</t>
@@ -149,6 +81,15 @@
   <si>
     <t> Cyclic Sort</t>
   </si>
+  <si>
+    <t>Tree Depth First Search </t>
+  </si>
+  <si>
+    <t>Merge Intervals</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cyclic Sort</t>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +101,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="3"/>
@@ -251,8 +192,14 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13.2"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -274,6 +221,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -420,16 +373,16 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="3">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -590,25 +543,25 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="1" dataCellStyle="Normal">
-      <calculatedColumnFormula>IFERROR(INDEX(TaskList[],MATCH(C$5&amp;$B6,TaskList[Match Data],0),3),"")</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B6,#REF!,0),3),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" dataCellStyle="Normal">
-      <calculatedColumnFormula>IFERROR(INDEX(TaskList[],MATCH(D$5&amp;$B6,TaskList[Match Data],0),3),"")</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(INDEX(#REF!,MATCH(D$5&amp;$B6,#REF!,0),3),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4" dataCellStyle="Normal">
-      <calculatedColumnFormula>IFERROR(INDEX(TaskList[],MATCH(E$5&amp;$B6,TaskList[Match Data],0),3),"")</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B6,#REF!,0),3),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5" dataCellStyle="Normal">
-      <calculatedColumnFormula>IFERROR(INDEX(TaskList[],MATCH(F$5&amp;$B6,TaskList[Match Data],0),3),"")</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B6,#REF!,0),3),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6" dataCellStyle="Normal">
-      <calculatedColumnFormula>IFERROR(INDEX(TaskList[],MATCH(G$5&amp;$B6,TaskList[Match Data],0),3),"")</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B6,#REF!,0),3),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Column7" dataCellStyle="Normal">
-      <calculatedColumnFormula>IFERROR(INDEX(TaskList[],MATCH(H$5&amp;$B6,TaskList[Match Data],0),3),"")</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B6,#REF!,0),3),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Column8" dataCellStyle="Normal">
-      <calculatedColumnFormula>IFERROR(INDEX(TaskList[],MATCH(I$5&amp;$B6,TaskList[Match Data],0),3),"")</calculatedColumnFormula>
+      <calculatedColumnFormula>IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B6,#REF!,0),3),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Weekly Task List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -621,58 +574,35 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{87DD73EC-39A5-2F41-B0FF-FDA636961329}" name="TaskSchedule4" displayName="TaskSchedule4" ref="B6:I11" headerRowCount="0" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B05C4B53-F460-D248-8624-9C7CA41CB91B}" name="TaskSchedule6" displayName="TaskSchedule6" ref="B6:I11" headerRowCount="0" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{80F473AF-E871-7B42-B114-4852D6198059}" name="Column1" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{292CE1D1-167A-5C4B-8663-F64FABB8D482}" name="Column2" dataDxfId="0" dataCellStyle="Normal">
-      <calculatedColumnFormula>IFERROR(INDEX(TaskList[],MATCH(C$5&amp;$B6,TaskList[Match Data],0),3),"")</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{9FFEF487-934D-8743-9EF2-D17EB03D952F}" name="Column1" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{890CFB0A-F202-D544-8F9F-EF7322751E2B}" name="Column2" dataDxfId="0" dataCellStyle="Normal">
+      <calculatedColumnFormula>IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B6,#REF!,0),3),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{D363CACD-D54A-2147-89FE-23869B78BB4C}" name="Column3" dataCellStyle="Normal">
-      <calculatedColumnFormula>IFERROR(INDEX(TaskList[],MATCH(D$5&amp;$B6,TaskList[Match Data],0),3),"")</calculatedColumnFormula>
+    <tableColumn id="3" xr3:uid="{8B52FBED-B8EC-954A-BD09-8F752D7518EF}" name="Column3" dataCellStyle="Normal">
+      <calculatedColumnFormula>IFERROR(INDEX(#REF!,MATCH(D$5&amp;$B6,#REF!,0),3),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{9A2E2C20-22E3-C641-BBA3-A9D9FEDC0844}" name="Column4" dataCellStyle="Normal">
-      <calculatedColumnFormula>IFERROR(INDEX(TaskList[],MATCH(E$5&amp;$B6,TaskList[Match Data],0),3),"")</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{41302CB1-7F0B-2A4B-B7B1-500C91BAE773}" name="Column4" dataCellStyle="Normal">
+      <calculatedColumnFormula>IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B6,#REF!,0),3),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FFF1E5C0-9370-9943-88B9-CA794893FE38}" name="Column5" dataCellStyle="Normal">
-      <calculatedColumnFormula>IFERROR(INDEX(TaskList[],MATCH(F$5&amp;$B6,TaskList[Match Data],0),3),"")</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{64A9A496-4B5C-FE47-9CEC-CD27F90ADBBE}" name="Column5" dataCellStyle="Normal">
+      <calculatedColumnFormula>IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B6,#REF!,0),3),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{7C255EA5-B40B-0140-A14F-ABD289F746BA}" name="Column6" dataCellStyle="Normal">
-      <calculatedColumnFormula>IFERROR(INDEX(TaskList[],MATCH(G$5&amp;$B6,TaskList[Match Data],0),3),"")</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{C5147C6B-146D-CF4F-8401-D64E31EC7161}" name="Column6" dataCellStyle="Normal">
+      <calculatedColumnFormula>IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B6,#REF!,0),3),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{4AADF5BA-E6F6-4B49-9423-ADD38B011482}" name="Column7" dataCellStyle="Normal">
-      <calculatedColumnFormula>IFERROR(INDEX(TaskList[],MATCH(H$5&amp;$B6,TaskList[Match Data],0),3),"")</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{40990E8B-F966-4E4A-A720-D1C8839D3E0C}" name="Column7" dataCellStyle="Normal">
+      <calculatedColumnFormula>IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B6,#REF!,0),3),"")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{6792371A-19AB-AA4B-AD94-8A976176488C}" name="Column8" dataCellStyle="Normal">
-      <calculatedColumnFormula>IFERROR(INDEX(TaskList[],MATCH(I$5&amp;$B6,TaskList[Match Data],0),3),"")</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{D0EDBC50-E99D-6845-9C27-8A7D68669225}" name="Column8" dataCellStyle="Normal">
+      <calculatedColumnFormula>IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B6,#REF!,0),3),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Weekly Task List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
       <x14:table altTextSummary="Enter Class titles in first column of this table &amp; other columns are automatically updated from the Assignment/Tasks entered in Task List worksheet"/>
-    </ext>
-  </extLst>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="TaskList" displayName="TaskList" ref="B3:E12" totalsRowShown="0" headerRowCellStyle="Heading 2">
-  <autoFilter ref="B3:E12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B5:E13">
-    <sortCondition ref="B4:B13"/>
-  </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Date" dataCellStyle="Date"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Class" dataCellStyle="Normal"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Assignment/Task" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Match Data">
-      <calculatedColumnFormula>TaskList[[#This Row],[Date]]&amp;TaskList[[#This Row],[Class]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="Weekly Task List" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
-      <x14:table altTextSummary="Enter date, class, and assignment or task. Use table filters to find specific entries"/>
     </ext>
   </extLst>
 </table>
@@ -947,7 +877,7 @@
   </sheetPr>
   <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -961,12 +891,12 @@
   <sheetData>
     <row r="1" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -977,248 +907,232 @@
         <v>1</v>
       </c>
       <c r="I3" s="3">
-        <f ca="1">TODAY()</f>
-        <v>43942</v>
+        <f>DATEVALUE("2020-5-2")</f>
+        <v>43953</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C4" s="9" t="str">
-        <f ca="1">TEXT(WEEKDAY(StartDate),"aaaa")</f>
+        <f>TEXT(WEEKDAY(StartDate),"aaaa")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="D4" s="9" t="str">
+        <f>TEXT(WEEKDAY(StartDate)+1,"aaaa")</f>
+        <v>Sunday</v>
+      </c>
+      <c r="E4" s="9" t="str">
+        <f>TEXT(WEEKDAY(StartDate)+2,"aaaa")</f>
+        <v>Monday</v>
+      </c>
+      <c r="F4" s="9" t="str">
+        <f>TEXT(WEEKDAY(StartDate)+3,"aaaa")</f>
         <v>Tuesday</v>
       </c>
-      <c r="D4" s="9" t="str">
-        <f ca="1">TEXT(WEEKDAY(StartDate)+1,"aaaa")</f>
+      <c r="G4" s="9" t="str">
+        <f>TEXT(WEEKDAY(StartDate)+4,"aaaa")</f>
         <v>Wednesday</v>
       </c>
-      <c r="E4" s="9" t="str">
-        <f ca="1">TEXT(WEEKDAY(StartDate)+2,"aaaa")</f>
+      <c r="H4" s="9" t="str">
+        <f>TEXT(WEEKDAY(StartDate)+5,"aaaa")</f>
         <v>Thursday</v>
       </c>
-      <c r="F4" s="9" t="str">
-        <f ca="1">TEXT(WEEKDAY(StartDate)+3,"aaaa")</f>
+      <c r="I4" s="9" t="str">
+        <f>TEXT(WEEKDAY(StartDate)+6,"aaaa")</f>
         <v>Friday</v>
-      </c>
-      <c r="G4" s="9" t="str">
-        <f ca="1">TEXT(WEEKDAY(StartDate)+4,"aaaa")</f>
-        <v>Saturday</v>
-      </c>
-      <c r="H4" s="9" t="str">
-        <f ca="1">TEXT(WEEKDAY(StartDate)+5,"aaaa")</f>
-        <v>Sunday</v>
-      </c>
-      <c r="I4" s="9" t="str">
-        <f ca="1">TEXT(WEEKDAY(StartDate)+6,"aaaa")</f>
-        <v>Monday</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8">
-        <f ca="1">YEAR(StartDate)</f>
+        <f>YEAR(StartDate)</f>
         <v>2020</v>
       </c>
       <c r="C5" s="4">
-        <f ca="1">StartDate</f>
-        <v>43942</v>
+        <f>StartDate</f>
+        <v>43953</v>
       </c>
       <c r="D5" s="4">
-        <f ca="1">C5+1</f>
-        <v>43943</v>
+        <f>C5+1</f>
+        <v>43954</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" ref="E5:I5" ca="1" si="0">D5+1</f>
-        <v>43944</v>
+        <f t="shared" ref="E5:F5" si="0">D5+1</f>
+        <v>43955</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>43945</v>
+        <f t="shared" si="0"/>
+        <v>43956</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>43946</v>
+        <f>F5+1</f>
+        <v>43957</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>43947</v>
+        <f>G5+1</f>
+        <v>43958</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>43948</v>
+        <f>H5+1</f>
+        <v>43959</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(C$5&amp;$B6,TaskList[Match Data],0),3),"")</f>
-        <v/>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(D$5&amp;$B6,TaskList[Match Data],0),3),"")</f>
-        <v/>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>32</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(C$5&amp;$B7,TaskList[Match Data],0),3),"")</f>
-        <v/>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(D$5&amp;$B7,TaskList[Match Data],0),3),"")</f>
-        <v/>
-      </c>
-      <c r="E7" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(E$5&amp;$B7,TaskList[Match Data],0),3),"")</f>
-        <v/>
-      </c>
-      <c r="F7" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(F$5&amp;$B7,TaskList[Match Data],0),3),"")</f>
-        <v/>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>30</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(C$5&amp;$B8,TaskList[Match Data],0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B8,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="E8" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(E$5&amp;$B8,TaskList[Match Data],0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B8,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="F8" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(F$5&amp;$B8,TaskList[Match Data],0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B8,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="G8" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(G$5&amp;$B8,TaskList[Match Data],0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B8,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="H8" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(H$5&amp;$B8,TaskList[Match Data],0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B8,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="I8" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(I$5&amp;$B8,TaskList[Match Data],0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B8,#REF!,0),3),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(C$5&amp;$B9,TaskList[Match Data],0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="D9" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(D$5&amp;$B9,TaskList[Match Data],0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(D$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="E9" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(E$5&amp;$B9,TaskList[Match Data],0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="F9" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(F$5&amp;$B9,TaskList[Match Data],0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="G9" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(G$5&amp;$B9,TaskList[Match Data],0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="H9" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(H$5&amp;$B9,TaskList[Match Data],0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="I9" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(I$5&amp;$B9,TaskList[Match Data],0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(C$5&amp;$B10,TaskList[Match Data],0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="D10" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(D$5&amp;$B10,TaskList[Match Data],0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(D$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="E10" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(E$5&amp;$B10,TaskList[Match Data],0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="F10" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(F$5&amp;$B10,TaskList[Match Data],0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="G10" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(G$5&amp;$B10,TaskList[Match Data],0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="H10" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(H$5&amp;$B10,TaskList[Match Data],0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="I10" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(I$5&amp;$B10,TaskList[Match Data],0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(C$5&amp;$B11,TaskList[Match Data],0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="D11" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(D$5&amp;$B11,TaskList[Match Data],0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(D$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="E11" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(E$5&amp;$B11,TaskList[Match Data],0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="F11" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(F$5&amp;$B11,TaskList[Match Data],0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="G11" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(G$5&amp;$B11,TaskList[Match Data],0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="H11" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(H$5&amp;$B11,TaskList[Match Data],0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="I11" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(I$5&amp;$B11,TaskList[Match Data],0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
     </row>
@@ -1258,7 +1172,7 @@
   <dimension ref="B1:I11"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1271,12 +1185,12 @@
   <sheetData>
     <row r="1" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B1" s="5" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="2:9" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1288,40 +1202,40 @@
       </c>
       <c r="I3" s="3">
         <f ca="1">TODAY()+6</f>
-        <v>43948</v>
+        <v>43959</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C4" s="9" t="str">
         <f ca="1">TEXT(WEEKDAY(StartDate),"aaaa")</f>
-        <v>Monday</v>
+        <v>Friday</v>
       </c>
       <c r="D4" s="9" t="str">
         <f ca="1">TEXT(WEEKDAY(StartDate)+1,"aaaa")</f>
-        <v>Tuesday</v>
+        <v>Saturday</v>
       </c>
       <c r="E4" s="9" t="str">
         <f ca="1">TEXT(WEEKDAY(StartDate)+2,"aaaa")</f>
-        <v>Wednesday</v>
+        <v>Sunday</v>
       </c>
       <c r="F4" s="9" t="str">
         <f ca="1">TEXT(WEEKDAY(StartDate)+3,"aaaa")</f>
-        <v>Thursday</v>
+        <v>Monday</v>
       </c>
       <c r="G4" s="9" t="str">
         <f ca="1">TEXT(WEEKDAY(StartDate)+4,"aaaa")</f>
-        <v>Friday</v>
+        <v>Tuesday</v>
       </c>
       <c r="H4" s="9" t="str">
         <f ca="1">TEXT(WEEKDAY(StartDate)+5,"aaaa")</f>
-        <v>Saturday</v>
+        <v>Wednesday</v>
       </c>
       <c r="I4" s="9" t="str">
         <f ca="1">TEXT(WEEKDAY(StartDate)+6,"aaaa")</f>
-        <v>Sunday</v>
+        <v>Thursday</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1331,213 +1245,189 @@
       </c>
       <c r="C5" s="4">
         <f ca="1">StartDate</f>
-        <v>43948</v>
+        <v>43959</v>
       </c>
       <c r="D5" s="4">
         <f ca="1">C5+1</f>
-        <v>43949</v>
+        <v>43960</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" ref="E5:I5" ca="1" si="0">D5+1</f>
-        <v>43950</v>
+        <f t="shared" ref="E5:F5" ca="1" si="0">D5+1</f>
+        <v>43961</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>43951</v>
+        <v>43962</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>43952</v>
+        <f ca="1">F5+1</f>
+        <v>43963</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>43953</v>
+        <f ca="1">G5+1</f>
+        <v>43964</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>43954</v>
+        <f ca="1">H5+1</f>
+        <v>43965</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(C$5&amp;$B6,TaskList[Match Data],0),3),"")</f>
-        <v/>
-      </c>
-      <c r="D6" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(D$5&amp;$B6,TaskList[Match Data],0),3),"")</f>
-        <v/>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>32</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(C$5&amp;$B7,TaskList[Match Data],0),3),"")</f>
-        <v/>
-      </c>
-      <c r="D7" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(D$5&amp;$B7,TaskList[Match Data],0),3),"")</f>
-        <v/>
-      </c>
-      <c r="E7" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(E$5&amp;$B7,TaskList[Match Data],0),3),"")</f>
-        <v/>
-      </c>
-      <c r="F7" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(F$5&amp;$B7,TaskList[Match Data],0),3),"")</f>
-        <v/>
-      </c>
-      <c r="G7" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>30</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
     </row>
     <row r="8" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(C$5&amp;$B8,TaskList[Match Data],0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B8,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="E8" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(E$5&amp;$B8,TaskList[Match Data],0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B8,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="F8" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(F$5&amp;$B8,TaskList[Match Data],0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B8,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="G8" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(G$5&amp;$B8,TaskList[Match Data],0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B8,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="H8" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(H$5&amp;$B8,TaskList[Match Data],0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B8,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="I8" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(I$5&amp;$B8,TaskList[Match Data],0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B8,#REF!,0),3),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(C$5&amp;$B9,TaskList[Match Data],0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="D9" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(D$5&amp;$B9,TaskList[Match Data],0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(D$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="E9" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(E$5&amp;$B9,TaskList[Match Data],0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="F9" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(F$5&amp;$B9,TaskList[Match Data],0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="G9" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(G$5&amp;$B9,TaskList[Match Data],0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="H9" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(H$5&amp;$B9,TaskList[Match Data],0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="I9" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(I$5&amp;$B9,TaskList[Match Data],0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(C$5&amp;$B10,TaskList[Match Data],0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="D10" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(D$5&amp;$B10,TaskList[Match Data],0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(D$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="E10" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(E$5&amp;$B10,TaskList[Match Data],0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="F10" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(F$5&amp;$B10,TaskList[Match Data],0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="G10" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(G$5&amp;$B10,TaskList[Match Data],0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="H10" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(H$5&amp;$B10,TaskList[Match Data],0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="I10" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(I$5&amp;$B10,TaskList[Match Data],0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(C$5&amp;$B11,TaskList[Match Data],0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="D11" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(D$5&amp;$B11,TaskList[Match Data],0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(D$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="E11" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(E$5&amp;$B11,TaskList[Match Data],0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="F11" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(F$5&amp;$B11,TaskList[Match Data],0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="G11" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(G$5&amp;$B11,TaskList[Match Data],0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="H11" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(H$5&amp;$B11,TaskList[Match Data],0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="I11" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(TaskList[],MATCH(I$5&amp;$B11,TaskList[Match Data],0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells C5 to I5 contain ascending dates for each day of the week starting with Start Date. Tasks are automatically updated under each column for each entry in the left column" sqref="C5" xr:uid="{6FD79899-90AE-624A-BE33-7961B8127AEA}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells C4 to I4 contains weekdays. The starting day of the week in this cell is automatically updated based on Schedule Start Date. To change this weekday, enter new date in cell I3" sqref="C4" xr:uid="{F567E6D8-836F-3D43-B4A4-15627D0513D3}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a category name for this task schedule in this cell" sqref="B4" xr:uid="{0B2211DE-08A3-B047-A760-0C160EC829D6}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Start Date Year from cell I3. Enter Class titles in this column under this heading. Corresponding tasks are automatically updated from Task List worksheet" sqref="B5" xr:uid="{8B010980-E81E-454D-9560-4CDB796646A2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells C5 to I5 contain ascending dates for each day of the week starting with Start Date. Tasks are automatically updated under each column for each entry in the left column" sqref="C5" xr:uid="{8320A299-60E0-2B4B-B4E9-FCE8247579E2}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells C4 to I4 contains weekdays. The starting day of the week in this cell is automatically updated based on Schedule Start Date. To change this weekday, enter new date in cell I3" sqref="C4" xr:uid="{0776413C-9790-D041-9B76-D2CFB7C545EA}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a category name for this task schedule in this cell" sqref="B4" xr:uid="{961965C4-D360-4F41-BA90-6A702769706E}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Start Date Year from cell I3. Enter Class titles in this column under this heading. Corresponding tasks are automatically updated from Task List worksheet" sqref="B5" xr:uid="{A3C41B45-7103-8B41-B6FF-73EE1F4DFA06}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Schedule Start Date in this cell. Task Schedule table will automatically update for the week starting at this date" sqref="I3" xr:uid="{CF955B55-399D-E24B-8349-55C9A044789C}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Schedule Start Date in cell at right" sqref="H3" xr:uid="{36005265-075F-304B-8717-D481CBD86AC3}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the worksheet is in cells B2 &amp; B3. Enter Schedule Start Date in cell I3" sqref="B2" xr:uid="{0082A4C1-0E86-9A4C-B63E-1A5F6D8B3834}"/>
@@ -1557,221 +1447,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <tabColor theme="4" tint="0.79998168889431442"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="B1:E12"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="60.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.5" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="2.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="2:5" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="10">
-        <f ca="1">TODAY()</f>
-        <v>43942</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="11" t="str">
-        <f ca="1">TaskList[[#This Row],[Date]]&amp;TaskList[[#This Row],[Class]]</f>
-        <v>43942HIS 101</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="10">
-        <f ca="1">TODAY()+1</f>
-        <v>43943</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="11" t="str">
-        <f ca="1">TaskList[[#This Row],[Date]]&amp;TaskList[[#This Row],[Class]]</f>
-        <v>43943MTH 101</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="10">
-        <f ca="1">TODAY()+2</f>
-        <v>43944</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="11" t="str">
-        <f ca="1">TaskList[[#This Row],[Date]]&amp;TaskList[[#This Row],[Class]]</f>
-        <v>43944ART 101</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="10">
-        <f ca="1">TODAY()+3</f>
-        <v>43945</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="12" t="str">
-        <f ca="1">TaskList[[#This Row],[Date]]&amp;TaskList[[#This Row],[Class]]</f>
-        <v>43945HIS 101</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="10">
-        <f ca="1">TODAY()+4</f>
-        <v>43946</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="11" t="str">
-        <f ca="1">TaskList[[#This Row],[Date]]&amp;TaskList[[#This Row],[Class]]</f>
-        <v>43946LIT 101</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="10">
-        <f ca="1">TODAY()+4</f>
-        <v>43946</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="11" t="str">
-        <f ca="1">TaskList[[#This Row],[Date]]&amp;TaskList[[#This Row],[Class]]</f>
-        <v>43946HIS 101</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="10">
-        <f ca="1">TODAY()+5</f>
-        <v>43947</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="12" t="str">
-        <f ca="1">TaskList[[#This Row],[Date]]&amp;TaskList[[#This Row],[Class]]</f>
-        <v>43947OTHER</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="10">
-        <f ca="1">TODAY()+5</f>
-        <v>43947</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="12" t="str">
-        <f ca="1">TaskList[[#This Row],[Date]]&amp;TaskList[[#This Row],[Class]]</f>
-        <v>43947OTHER</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="10">
-        <f ca="1">TODAY()+6</f>
-        <v>43948</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="11" t="str">
-        <f ca="1">TaskList[[#This Row],[Date]]&amp;TaskList[[#This Row],[Class]]</f>
-        <v>43948ENG 101</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataConsolidate/>
-  <dataValidations count="7">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create Task List in this worksheet. Tasks will automatically update in Task Schedule table. Select B1 to navigate back to Weekly Task Schedule worksheet" sqref="A1" xr:uid="{00000000-0002-0000-0100-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Navigational link to Weekly Task Schedule worksheet" sqref="B1" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the worksheet is in this cell. Enter task details in table below" sqref="B2" xr:uid="{00000000-0002-0000-0100-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter date in this column under this heading. Use heading filters to find specific entries" sqref="B3" xr:uid="{00000000-0002-0000-0100-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Select Class in this column under this heading. Class list is updated from Task Schedule table column B. Press ALT+DOWN arrow to open drop down list, then ENTER to make selection" sqref="C3" xr:uid="{00000000-0002-0000-0100-000004000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Assignment or Task for the corresponding class in column C, in this column under this heading" sqref="D3" xr:uid="{00000000-0002-0000-0100-000005000000}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Entry doesn't match items in the list. Select No, then press ALT+DOWN ARROW and ENTER to select a new entry, CANCEL to clear the selection" sqref="C4:C12" xr:uid="{00000000-0002-0000-0100-000006000000}">
-      <formula1>Classes</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B1" location="'Weekly Task Schedule'!A1" tooltip="Select to view Weekly Task Schedule worksheet" display="To Weekly Task Schedule" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-  </hyperlinks>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="76" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <headerFooter differentFirst="1">
-    <oddFooter>Page &amp;P of &amp;N</oddFooter>
-  </headerFooter>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/Patterns/schedule.xlsx
+++ b/Patterns/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xtstc131/Documents/Trail/Leetcode/Patterns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A297F55-C01D-DA4A-9C33-4C9D6164395F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D79D97E-6B00-D34B-9B82-4CF2ED1C9257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Task Schedule" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
   <si>
     <t>TASK SCHEDULE</t>
   </si>
@@ -79,16 +79,40 @@
     <t>Tree Breadth First Search</t>
   </si>
   <si>
-    <t> Cyclic Sort</t>
-  </si>
-  <si>
     <t>Tree Depth First Search </t>
   </si>
   <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>Merge Intervals</t>
   </si>
   <si>
-    <t xml:space="preserve"> Cyclic Sort</t>
+    <t>Cyclic Sort</t>
+  </si>
+  <si>
+    <t>In-place Reversal of a LinkedList</t>
+  </si>
+  <si>
+    <t>Two Heaps</t>
+  </si>
+  <si>
+    <t>Subsets</t>
+  </si>
+  <si>
+    <t>Modified Binary Search</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>DFS</t>
   </si>
 </sst>
 </file>
@@ -199,7 +223,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +250,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,7 +378,7 @@
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -379,10 +415,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="9" fontId="12" fillId="7" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="7" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -877,8 +925,8 @@
   </sheetPr>
   <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" showZeros="0" topLeftCell="C2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -898,6 +946,9 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="2:9" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
@@ -982,42 +1033,46 @@
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="12" t="s">
+      <c r="E6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
     </row>
     <row r="7" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="11"/>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="11"/>
+      <c r="F7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12" t="s">
+        <v>10</v>
+      </c>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -1033,9 +1088,8 @@
         <f>IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B8,#REF!,0),3),"")</f>
         <v/>
       </c>
-      <c r="G8" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B8,#REF!,0),3),"")</f>
-        <v/>
+      <c r="G8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="H8" s="1" t="str">
         <f>IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B8,#REF!,0),3),"")</f>
@@ -1055,10 +1109,6 @@
         <f>IFERROR(INDEX(#REF!,MATCH(D$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
-      <c r="E9" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B9,#REF!,0),3),"")</f>
-        <v/>
-      </c>
       <c r="F9" s="1" t="str">
         <f>IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
@@ -1137,7 +1187,7 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations disablePrompts="1" count="9">
+  <dataValidations count="9">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Track Weekly Tasks in this Weekly Task Schedule worksheet. Add tasks in Task List worksheet to automatically update the schedule. Select cell B1 to navigate to Task List worksheet" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Navigation link to Task List worksheet" sqref="B1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the worksheet is in cells B2 &amp; B3. Enter Schedule Start Date in cell I3" sqref="B2" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
@@ -1171,8 +1221,8 @@
   </sheetPr>
   <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1201,8 +1251,8 @@
         <v>1</v>
       </c>
       <c r="I3" s="3">
-        <f ca="1">TODAY()+6</f>
-        <v>43959</v>
+        <f>DATEVALUE("2020-5-11")</f>
+        <v>43962</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1210,215 +1260,231 @@
         <v>4</v>
       </c>
       <c r="C4" s="9" t="str">
-        <f ca="1">TEXT(WEEKDAY(StartDate),"aaaa")</f>
+        <f>TEXT(WEEKDAY(StartDate),"aaaa")</f>
+        <v>Monday</v>
+      </c>
+      <c r="D4" s="9" t="str">
+        <f>TEXT(WEEKDAY(StartDate)+1,"aaaa")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="E4" s="9" t="str">
+        <f>TEXT(WEEKDAY(StartDate)+2,"aaaa")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="F4" s="9" t="str">
+        <f>TEXT(WEEKDAY(StartDate)+3,"aaaa")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="G4" s="9" t="str">
+        <f>TEXT(WEEKDAY(StartDate)+4,"aaaa")</f>
         <v>Friday</v>
       </c>
-      <c r="D4" s="9" t="str">
-        <f ca="1">TEXT(WEEKDAY(StartDate)+1,"aaaa")</f>
+      <c r="H4" s="9" t="str">
+        <f>TEXT(WEEKDAY(StartDate)+5,"aaaa")</f>
         <v>Saturday</v>
       </c>
-      <c r="E4" s="9" t="str">
-        <f ca="1">TEXT(WEEKDAY(StartDate)+2,"aaaa")</f>
+      <c r="I4" s="9" t="str">
+        <f>TEXT(WEEKDAY(StartDate)+6,"aaaa")</f>
         <v>Sunday</v>
-      </c>
-      <c r="F4" s="9" t="str">
-        <f ca="1">TEXT(WEEKDAY(StartDate)+3,"aaaa")</f>
-        <v>Monday</v>
-      </c>
-      <c r="G4" s="9" t="str">
-        <f ca="1">TEXT(WEEKDAY(StartDate)+4,"aaaa")</f>
-        <v>Tuesday</v>
-      </c>
-      <c r="H4" s="9" t="str">
-        <f ca="1">TEXT(WEEKDAY(StartDate)+5,"aaaa")</f>
-        <v>Wednesday</v>
-      </c>
-      <c r="I4" s="9" t="str">
-        <f ca="1">TEXT(WEEKDAY(StartDate)+6,"aaaa")</f>
-        <v>Thursday</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="8">
-        <f ca="1">YEAR(StartDate)</f>
+        <f>YEAR(StartDate)</f>
         <v>2020</v>
       </c>
       <c r="C5" s="4">
-        <f ca="1">StartDate</f>
-        <v>43959</v>
+        <f>StartDate</f>
+        <v>43962</v>
       </c>
       <c r="D5" s="4">
-        <f ca="1">C5+1</f>
-        <v>43960</v>
+        <f>C5+1</f>
+        <v>43963</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" ref="E5:F5" ca="1" si="0">D5+1</f>
-        <v>43961</v>
+        <f t="shared" ref="E5:F5" si="0">D5+1</f>
+        <v>43964</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>43962</v>
+        <f t="shared" si="0"/>
+        <v>43965</v>
       </c>
       <c r="G5" s="4">
-        <f ca="1">F5+1</f>
-        <v>43963</v>
+        <f>F5+1</f>
+        <v>43966</v>
       </c>
       <c r="H5" s="4">
-        <f ca="1">G5+1</f>
-        <v>43964</v>
+        <f>G5+1</f>
+        <v>43967</v>
       </c>
       <c r="I5" s="4">
-        <f ca="1">H5+1</f>
-        <v>43965</v>
+        <f>H5+1</f>
+        <v>43968</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="C6" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>7</v>
+      <c r="C7" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+        <v>21</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B8,#REF!,0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B8,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="E8" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B8,#REF!,0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B8,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="F8" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B8,#REF!,0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B8,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="G8" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B8,#REF!,0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B8,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="H8" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B8,#REF!,0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B8,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="I8" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B8,#REF!,0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B8,#REF!,0),3),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B9,#REF!,0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="D9" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(#REF!,MATCH(D$5&amp;$B9,#REF!,0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(D$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="E9" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B9,#REF!,0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="F9" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B9,#REF!,0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="G9" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B9,#REF!,0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="H9" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B9,#REF!,0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="I9" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B9,#REF!,0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B10,#REF!,0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="D10" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(#REF!,MATCH(D$5&amp;$B10,#REF!,0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(D$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="E10" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B10,#REF!,0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="F10" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B10,#REF!,0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="G10" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B10,#REF!,0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="H10" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B10,#REF!,0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="I10" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B10,#REF!,0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B11,#REF!,0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="D11" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(#REF!,MATCH(D$5&amp;$B11,#REF!,0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(D$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="E11" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B11,#REF!,0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="F11" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B11,#REF!,0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="G11" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B11,#REF!,0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="H11" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B11,#REF!,0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="I11" s="1" t="str">
-        <f ca="1">IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B11,#REF!,0),3),"")</f>
+        <f>IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
     </row>

--- a/Patterns/schedule.xlsx
+++ b/Patterns/schedule.xlsx
@@ -8,28 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xtstc131/Documents/Trail/Leetcode/Patterns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D79D97E-6B00-D34B-9B82-4CF2ED1C9257}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E29085B-28BA-A246-8493-24A596154ECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Task Schedule" sheetId="1" r:id="rId1"/>
     <sheet name="Weekly Task Schedule (2)" sheetId="5" r:id="rId2"/>
+    <sheet name="Weekly Task Schedule (3)" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="Classes" localSheetId="1">#REF!</definedName>
+    <definedName name="Classes" localSheetId="2">#REF!</definedName>
     <definedName name="Classes">TaskSchedule[[#All],[Column1]]</definedName>
     <definedName name="ColumnTitle2" localSheetId="1">#REF!</definedName>
+    <definedName name="ColumnTitle2" localSheetId="2">#REF!</definedName>
     <definedName name="ColumnTitle2">#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Weekly Task Schedule'!$4:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Weekly Task Schedule (2)'!$4:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Weekly Task Schedule (3)'!$4:$5</definedName>
     <definedName name="RowTitleRegion1..I3" localSheetId="1">'Weekly Task Schedule (2)'!$H$3</definedName>
+    <definedName name="RowTitleRegion1..I3" localSheetId="2">'Weekly Task Schedule (3)'!$H$3</definedName>
     <definedName name="RowTitleRegion1..I3">'Weekly Task Schedule'!$H$3</definedName>
     <definedName name="StartDate" localSheetId="1">'Weekly Task Schedule (2)'!$I$3</definedName>
+    <definedName name="StartDate" localSheetId="2">'Weekly Task Schedule (3)'!$I$3</definedName>
     <definedName name="StartDate">'Weekly Task Schedule'!$I$3</definedName>
     <definedName name="Title1" localSheetId="1">#REF!</definedName>
+    <definedName name="Title1" localSheetId="2">#REF!</definedName>
     <definedName name="Title1">TaskSchedule[[#All],[Column1]]</definedName>
     <definedName name="WhoField" localSheetId="1">#REF!</definedName>
+    <definedName name="WhoField" localSheetId="2">#REF!</definedName>
     <definedName name="WhoField">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -47,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
   <si>
     <t>TASK SCHEDULE</t>
   </si>
@@ -113,6 +122,15 @@
   </si>
   <si>
     <t>DFS</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>Graphs</t>
   </si>
 </sst>
 </file>
@@ -125,7 +143,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="3"/>
@@ -219,6 +237,11 @@
     <font>
       <sz val="13.2"/>
       <color rgb="FF1A1A1A"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13.2"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -378,7 +401,7 @@
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -431,6 +454,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -454,7 +486,10 @@
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Year" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -568,11 +603,11 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Weekly Task List" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Weekly Task List" pivot="0" count="5" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="firstColumn" dxfId="4"/>
-      <tableStyleElement type="firstRowStripe" dxfId="3"/>
-      <tableStyleElement type="secondRowStripe" dxfId="2"/>
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="firstColumn" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -590,7 +625,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="TaskSchedule" displayName="TaskSchedule" ref="B6:I11" headerRowCount="0" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="1" dataCellStyle="Normal">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2" dataDxfId="2" dataCellStyle="Normal">
       <calculatedColumnFormula>IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B6,#REF!,0),3),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3" dataCellStyle="Normal">
@@ -625,7 +660,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{B05C4B53-F460-D248-8624-9C7CA41CB91B}" name="TaskSchedule6" displayName="TaskSchedule6" ref="B6:I11" headerRowCount="0" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{9FFEF487-934D-8743-9EF2-D17EB03D952F}" name="Column1" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{890CFB0A-F202-D544-8F9F-EF7322751E2B}" name="Column2" dataDxfId="0" dataCellStyle="Normal">
+    <tableColumn id="2" xr3:uid="{890CFB0A-F202-D544-8F9F-EF7322751E2B}" name="Column2" dataDxfId="1" dataCellStyle="Normal">
       <calculatedColumnFormula>IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B6,#REF!,0),3),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{8B52FBED-B8EC-954A-BD09-8F752D7518EF}" name="Column3" dataCellStyle="Normal">
@@ -644,6 +679,41 @@
       <calculatedColumnFormula>IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B6,#REF!,0),3),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="8" xr3:uid="{D0EDBC50-E99D-6845-9C27-8A7D68669225}" name="Column8" dataCellStyle="Normal">
+      <calculatedColumnFormula>IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B6,#REF!,0),3),"")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="Weekly Task List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altTextSummary="Enter Class titles in first column of this table &amp; other columns are automatically updated from the Assignment/Tasks entered in Task List worksheet"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F782B43F-42AA-D349-8FDE-76EAAA17548F}" name="TaskSchedule62" displayName="TaskSchedule62" ref="B6:I11" headerRowCount="0" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{D219ABD4-6390-C146-9F28-9358D54ADE37}" name="Column1" dataCellStyle="Normal"/>
+    <tableColumn id="2" xr3:uid="{EFE4E9BF-FC73-BF46-B63F-C00FDFC6CEA3}" name="Column2" dataDxfId="0" dataCellStyle="Normal">
+      <calculatedColumnFormula>IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B6,#REF!,0),3),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{135DB759-D96D-B843-B8D6-35F4BA4F61EF}" name="Column3" dataCellStyle="Normal">
+      <calculatedColumnFormula>IFERROR(INDEX(#REF!,MATCH(D$5&amp;$B6,#REF!,0),3),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{B77DB884-2A23-DD4F-B188-D5BA67974BE5}" name="Column4" dataCellStyle="Normal">
+      <calculatedColumnFormula>IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B6,#REF!,0),3),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{792B6A52-10C4-FB43-A115-3299D27AD7CD}" name="Column5" dataCellStyle="Normal">
+      <calculatedColumnFormula>IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B6,#REF!,0),3),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{44283931-87AA-3E42-A15D-09DC14A52698}" name="Column6" dataCellStyle="Normal">
+      <calculatedColumnFormula>IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B6,#REF!,0),3),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{742FE15C-9C25-EE45-9CD0-3290459BEB7B}" name="Column7" dataCellStyle="Normal">
+      <calculatedColumnFormula>IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B6,#REF!,0),3),"")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{170843A0-E9D5-E948-8E7A-7A3603F8556B}" name="Column8" dataCellStyle="Normal">
       <calculatedColumnFormula>IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B6,#REF!,0),3),"")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1221,7 +1291,7 @@
   </sheetPr>
   <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1513,4 +1583,315 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E75E14-6C82-064A-BDFF-E89A21FDA285}">
+  <sheetPr>
+    <tabColor theme="4"/>
+    <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:I11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="9" width="25.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="2.6640625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="50" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <f>DATEVALUE("2020-6-15")</f>
+        <v>43997</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="str">
+        <f>TEXT(WEEKDAY(StartDate),"aaaa")</f>
+        <v>Monday</v>
+      </c>
+      <c r="D4" s="9" t="str">
+        <f>TEXT(WEEKDAY(StartDate)+1,"aaaa")</f>
+        <v>Tuesday</v>
+      </c>
+      <c r="E4" s="9" t="str">
+        <f>TEXT(WEEKDAY(StartDate)+2,"aaaa")</f>
+        <v>Wednesday</v>
+      </c>
+      <c r="F4" s="9" t="str">
+        <f>TEXT(WEEKDAY(StartDate)+3,"aaaa")</f>
+        <v>Thursday</v>
+      </c>
+      <c r="G4" s="9" t="str">
+        <f>TEXT(WEEKDAY(StartDate)+4,"aaaa")</f>
+        <v>Friday</v>
+      </c>
+      <c r="H4" s="9" t="str">
+        <f>TEXT(WEEKDAY(StartDate)+5,"aaaa")</f>
+        <v>Saturday</v>
+      </c>
+      <c r="I4" s="9" t="str">
+        <f>TEXT(WEEKDAY(StartDate)+6,"aaaa")</f>
+        <v>Sunday</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="8">
+        <f>YEAR(StartDate)</f>
+        <v>2020</v>
+      </c>
+      <c r="C5" s="4">
+        <f>StartDate</f>
+        <v>43997</v>
+      </c>
+      <c r="D5" s="4">
+        <f>C5+1</f>
+        <v>43998</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" ref="E5:F5" si="0">D5+1</f>
+        <v>43999</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>44000</v>
+      </c>
+      <c r="G5" s="4">
+        <f>F5+1</f>
+        <v>44001</v>
+      </c>
+      <c r="H5" s="4">
+        <f>G5+1</f>
+        <v>44002</v>
+      </c>
+      <c r="I5" s="4">
+        <f>H5+1</f>
+        <v>44003</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C8" s="1" t="str">
+        <f>IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B8,#REF!,0),3),"")</f>
+        <v/>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f>IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B8,#REF!,0),3),"")</f>
+        <v/>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f>IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B8,#REF!,0),3),"")</f>
+        <v/>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f>IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B8,#REF!,0),3),"")</f>
+        <v/>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f>IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B8,#REF!,0),3),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C9" s="1" t="str">
+        <f>IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B9,#REF!,0),3),"")</f>
+        <v/>
+      </c>
+      <c r="D9" s="1" t="str">
+        <f>IFERROR(INDEX(#REF!,MATCH(D$5&amp;$B9,#REF!,0),3),"")</f>
+        <v/>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f>IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B9,#REF!,0),3),"")</f>
+        <v/>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f>IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B9,#REF!,0),3),"")</f>
+        <v/>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f>IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B9,#REF!,0),3),"")</f>
+        <v/>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f>IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B9,#REF!,0),3),"")</f>
+        <v/>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f>IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B9,#REF!,0),3),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="1" t="str">
+        <f>IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B10,#REF!,0),3),"")</f>
+        <v/>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>IFERROR(INDEX(#REF!,MATCH(D$5&amp;$B10,#REF!,0),3),"")</f>
+        <v/>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f>IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B10,#REF!,0),3),"")</f>
+        <v/>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f>IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B10,#REF!,0),3),"")</f>
+        <v/>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B10,#REF!,0),3),"")</f>
+        <v/>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f>IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B10,#REF!,0),3),"")</f>
+        <v/>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f>IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B10,#REF!,0),3),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="1" t="str">
+        <f>IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B11,#REF!,0),3),"")</f>
+        <v/>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f>IFERROR(INDEX(#REF!,MATCH(D$5&amp;$B11,#REF!,0),3),"")</f>
+        <v/>
+      </c>
+      <c r="E11" s="1" t="str">
+        <f>IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B11,#REF!,0),3),"")</f>
+        <v/>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f>IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B11,#REF!,0),3),"")</f>
+        <v/>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B11,#REF!,0),3),"")</f>
+        <v/>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f>IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B11,#REF!,0),3),"")</f>
+        <v/>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f>IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B11,#REF!,0),3),"")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="9">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Track Weekly Tasks in this Weekly Task Schedule worksheet. Add tasks in Task List worksheet to automatically update the schedule. Select cell B1 to navigate to Task List worksheet" sqref="A1" xr:uid="{B6CEFED7-A4B4-9447-987F-0EB90935AF57}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Navigation link to Task List worksheet" sqref="B1" xr:uid="{B1881611-F504-3147-BC8C-59896D5B246D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of the worksheet is in cells B2 &amp; B3. Enter Schedule Start Date in cell I3" sqref="B2" xr:uid="{AA54FCEC-E146-B244-9ED5-85BA1FBC1EEC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Schedule Start Date in cell at right" sqref="H3" xr:uid="{FA245F18-71DE-1F4D-BD0C-C333DA868C46}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Schedule Start Date in this cell. Task Schedule table will automatically update for the week starting at this date" sqref="I3" xr:uid="{94BD2FDB-684E-6F40-84FF-C5FF362E7FB9}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Start Date Year from cell I3. Enter Class titles in this column under this heading. Corresponding tasks are automatically updated from Task List worksheet" sqref="B5" xr:uid="{0EF07E39-D179-B442-9A4B-2C83F1378ABC}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a category name for this task schedule in this cell" sqref="B4" xr:uid="{A65CB8E1-CFB1-6F4C-95DA-9EA69D315F2F}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells C4 to I4 contains weekdays. The starting day of the week in this cell is automatically updated based on Schedule Start Date. To change this weekday, enter new date in cell I3" sqref="C4" xr:uid="{C879C5D8-A977-C344-B05A-777CCCF1DA38}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Cells C5 to I5 contain ascending dates for each day of the week starting with Start Date. Tasks are automatically updated under each column for each entry in the left column" sqref="C5" xr:uid="{F8E12E5B-BFDB-6F42-83D7-AC2AEF7B4194}"/>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B1" location="'Task List'!A1" tooltip="Select to view Task List worksheet" display="To Task List" xr:uid="{5C5A1AFE-7325-BA47-9815-DFAE4247C715}"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="64" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <headerFooter differentFirst="1">
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03DF64C-CE01-984C-B495-735206B43DD7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Patterns/schedule.xlsx
+++ b/Patterns/schedule.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xtstc131/Documents/Trail/Leetcode/Patterns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E29085B-28BA-A246-8493-24A596154ECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E7907C-E947-F74B-AFE4-F3B50C632EFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Weekly Task Schedule" sheetId="1" r:id="rId1"/>
     <sheet name="Weekly Task Schedule (2)" sheetId="5" r:id="rId2"/>
     <sheet name="Weekly Task Schedule (3)" sheetId="7" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="Revise" sheetId="8" r:id="rId4"/>
+    <sheet name="New" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="Classes" localSheetId="1">#REF!</definedName>
@@ -49,14 +51,37 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
   <si>
     <t>TASK SCHEDULE</t>
   </si>
@@ -131,6 +156,39 @@
   </si>
   <si>
     <t>Graphs</t>
+  </si>
+  <si>
+    <t>3 new problems</t>
+  </si>
+  <si>
+    <t>5 old problems</t>
+  </si>
+  <si>
+    <t>Slidling Windows</t>
+  </si>
+  <si>
+    <t>Two Points</t>
+  </si>
+  <si>
+    <t>Merge Interval</t>
+  </si>
+  <si>
+    <t>2 Heaps</t>
+  </si>
+  <si>
+    <t>Top K</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>K Way Merge</t>
+  </si>
+  <si>
+    <t>Linked List</t>
+  </si>
+  <si>
+    <t>305 （lint:434）</t>
   </si>
 </sst>
 </file>
@@ -143,7 +201,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="3"/>
@@ -245,8 +303,63 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="3"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF212121"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF212121"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,8 +401,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -358,6 +507,83 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -401,7 +627,7 @@
       <alignment horizontal="left" vertical="top" indent="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -463,6 +689,111 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1291,9 +1622,7 @@
   </sheetPr>
   <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView showGridLines="0" showZeros="0" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1320,76 +1649,76 @@
       <c r="H3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="3">
-        <f>DATEVALUE("2020-5-11")</f>
-        <v>43962</v>
+      <c r="I3" s="3" t="e" cm="1">
+        <f t="array" aca="1" ref="I3" ca="1">New!A1DATEVALUE("2020-5-11")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9" t="str">
-        <f>TEXT(WEEKDAY(StartDate),"aaaa")</f>
-        <v>Monday</v>
-      </c>
-      <c r="D4" s="9" t="str">
-        <f>TEXT(WEEKDAY(StartDate)+1,"aaaa")</f>
-        <v>Tuesday</v>
-      </c>
-      <c r="E4" s="9" t="str">
-        <f>TEXT(WEEKDAY(StartDate)+2,"aaaa")</f>
-        <v>Wednesday</v>
-      </c>
-      <c r="F4" s="9" t="str">
-        <f>TEXT(WEEKDAY(StartDate)+3,"aaaa")</f>
-        <v>Thursday</v>
-      </c>
-      <c r="G4" s="9" t="str">
-        <f>TEXT(WEEKDAY(StartDate)+4,"aaaa")</f>
-        <v>Friday</v>
-      </c>
-      <c r="H4" s="9" t="str">
-        <f>TEXT(WEEKDAY(StartDate)+5,"aaaa")</f>
-        <v>Saturday</v>
-      </c>
-      <c r="I4" s="9" t="str">
-        <f>TEXT(WEEKDAY(StartDate)+6,"aaaa")</f>
-        <v>Sunday</v>
+      <c r="C4" s="9" t="e">
+        <f ca="1">TEXT(WEEKDAY(StartDate),"aaaa")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D4" s="9" t="e">
+        <f ca="1">TEXT(WEEKDAY(StartDate)+1,"aaaa")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E4" s="9" t="e">
+        <f ca="1">TEXT(WEEKDAY(StartDate)+2,"aaaa")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F4" s="9" t="e">
+        <f ca="1">TEXT(WEEKDAY(StartDate)+3,"aaaa")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G4" s="9" t="e">
+        <f ca="1">TEXT(WEEKDAY(StartDate)+4,"aaaa")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H4" s="9" t="e">
+        <f ca="1">TEXT(WEEKDAY(StartDate)+5,"aaaa")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I4" s="9" t="e">
+        <f ca="1">TEXT(WEEKDAY(StartDate)+6,"aaaa")</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="8">
-        <f>YEAR(StartDate)</f>
-        <v>2020</v>
-      </c>
-      <c r="C5" s="4">
-        <f>StartDate</f>
-        <v>43962</v>
-      </c>
-      <c r="D5" s="4">
-        <f>C5+1</f>
-        <v>43963</v>
-      </c>
-      <c r="E5" s="4">
-        <f t="shared" ref="E5:F5" si="0">D5+1</f>
-        <v>43964</v>
-      </c>
-      <c r="F5" s="4">
-        <f t="shared" si="0"/>
-        <v>43965</v>
-      </c>
-      <c r="G5" s="4">
-        <f>F5+1</f>
-        <v>43966</v>
-      </c>
-      <c r="H5" s="4">
-        <f>G5+1</f>
-        <v>43967</v>
-      </c>
-      <c r="I5" s="4">
-        <f>H5+1</f>
-        <v>43968</v>
+      <c r="B5" s="8" t="e">
+        <f ca="1">YEAR(StartDate)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="C5" s="4" t="e">
+        <f ca="1">StartDate</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="D5" s="4" t="e">
+        <f ca="1">C5+1</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="E5" s="4" t="e">
+        <f t="shared" ref="E5:F5" ca="1" si="0">D5+1</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F5" s="4" t="e">
+        <f t="shared" ca="1" si="0"/>
+        <v>#NAME?</v>
+      </c>
+      <c r="G5" s="4" t="e">
+        <f ca="1">F5+1</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="H5" s="4" t="e">
+        <f ca="1">G5+1</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="I5" s="4" t="e">
+        <f ca="1">H5+1</f>
+        <v>#NAME?</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -1444,117 +1773,117 @@
     </row>
     <row r="8" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B8,#REF!,0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B8,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="E8" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B8,#REF!,0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B8,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="F8" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B8,#REF!,0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B8,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="G8" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B8,#REF!,0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B8,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="H8" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B8,#REF!,0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B8,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="I8" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B8,#REF!,0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B8,#REF!,0),3),"")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B9,#REF!,0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="D9" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(D$5&amp;$B9,#REF!,0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(D$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="E9" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B9,#REF!,0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="F9" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B9,#REF!,0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="G9" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B9,#REF!,0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="H9" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B9,#REF!,0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="I9" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B9,#REF!,0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B9,#REF!,0),3),"")</f>
         <v/>
       </c>
     </row>
     <row r="10" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B10,#REF!,0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="D10" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(D$5&amp;$B10,#REF!,0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(D$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="E10" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B10,#REF!,0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="F10" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B10,#REF!,0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="G10" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B10,#REF!,0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="H10" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B10,#REF!,0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="I10" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B10,#REF!,0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B10,#REF!,0),3),"")</f>
         <v/>
       </c>
     </row>
     <row r="11" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B11,#REF!,0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(C$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="D11" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(D$5&amp;$B11,#REF!,0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(D$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="E11" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B11,#REF!,0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(E$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="F11" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B11,#REF!,0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(F$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="G11" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B11,#REF!,0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(G$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="H11" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B11,#REF!,0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(H$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
       <c r="I11" s="1" t="str">
-        <f>IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B11,#REF!,0),3),"")</f>
+        <f ca="1">IFERROR(INDEX(#REF!,MATCH(I$5&amp;$B11,#REF!,0),3),"")</f>
         <v/>
       </c>
     </row>
@@ -1593,8 +1922,8 @@
   </sheetPr>
   <dimension ref="B1:I11"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView showGridLines="0" showZeros="0" topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1623,8 +1952,8 @@
         <v>1</v>
       </c>
       <c r="I3" s="3">
-        <f>DATEVALUE("2020-6-15")</f>
-        <v>43997</v>
+        <f>DATEVALUE("2020-7-6")</f>
+        <v>44018</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1667,31 +1996,31 @@
       </c>
       <c r="C5" s="4">
         <f>StartDate</f>
-        <v>43997</v>
+        <v>44018</v>
       </c>
       <c r="D5" s="4">
         <f>C5+1</f>
-        <v>43998</v>
+        <v>44019</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" ref="E5:F5" si="0">D5+1</f>
-        <v>43999</v>
+        <v>44020</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>44000</v>
+        <v>44021</v>
       </c>
       <c r="G5" s="4">
         <f>F5+1</f>
-        <v>44001</v>
+        <v>44022</v>
       </c>
       <c r="H5" s="4">
         <f>G5+1</f>
-        <v>44002</v>
+        <v>44023</v>
       </c>
       <c r="I5" s="4">
         <f>H5+1</f>
-        <v>44003</v>
+        <v>44024</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -1699,7 +2028,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>22</v>
@@ -1721,7 +2050,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>20</v>
@@ -1885,10 +2214,1055 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01FB1504-426F-3F45-95CA-F46FF13D49CC}">
+  <dimension ref="A1:G137"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78:B82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="21">
+        <v>1</v>
+      </c>
+      <c r="C1" s="21">
+        <v>2</v>
+      </c>
+      <c r="D1" s="21">
+        <v>3</v>
+      </c>
+      <c r="E1" s="21">
+        <v>4</v>
+      </c>
+      <c r="F1" s="21">
+        <v>5</v>
+      </c>
+      <c r="G1" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="23" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="22">
+        <v>3</v>
+      </c>
+      <c r="B3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="22">
+        <v>76</v>
+      </c>
+      <c r="B4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="22">
+        <v>424</v>
+      </c>
+      <c r="B5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="22">
+        <v>438</v>
+      </c>
+      <c r="B6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="46">
+        <v>567</v>
+      </c>
+      <c r="B7" s="47"/>
+    </row>
+    <row r="8" spans="1:7" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="44"/>
+    </row>
+    <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="22">
+        <v>11</v>
+      </c>
+      <c r="B9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="22">
+        <v>15</v>
+      </c>
+      <c r="B10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="22">
+        <v>16</v>
+      </c>
+      <c r="B11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="22">
+        <v>17</v>
+      </c>
+      <c r="B12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="46">
+        <v>42</v>
+      </c>
+      <c r="B13" s="47"/>
+    </row>
+    <row r="14" spans="1:7" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22">
+        <v>75</v>
+      </c>
+      <c r="B14" s="23"/>
+    </row>
+    <row r="15" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22">
+        <v>977</v>
+      </c>
+      <c r="B15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" ht="45" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
+    </row>
+    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="22">
+        <v>2</v>
+      </c>
+      <c r="B17" s="24"/>
+    </row>
+    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="22">
+        <v>19</v>
+      </c>
+      <c r="B18" s="23"/>
+    </row>
+    <row r="19" spans="1:5" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="46">
+        <v>83</v>
+      </c>
+      <c r="B19" s="49"/>
+    </row>
+    <row r="20" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22">
+        <v>141</v>
+      </c>
+      <c r="B20" s="24"/>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="22">
+        <v>142</v>
+      </c>
+      <c r="B21" s="24"/>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="22">
+        <v>143</v>
+      </c>
+      <c r="B22" s="23"/>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="22">
+        <v>148</v>
+      </c>
+      <c r="B23" s="35"/>
+    </row>
+    <row r="24" spans="1:5" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="46">
+        <v>203</v>
+      </c>
+      <c r="B24" s="47"/>
+    </row>
+    <row r="25" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="22">
+        <v>234</v>
+      </c>
+      <c r="B25" s="38"/>
+    </row>
+    <row r="26" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="22">
+        <v>876</v>
+      </c>
+      <c r="B26" s="24"/>
+    </row>
+    <row r="27" spans="1:5" ht="23" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="40"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+    </row>
+    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="22">
+        <v>102</v>
+      </c>
+      <c r="B28" s="24"/>
+    </row>
+    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A29" s="22">
+        <v>103</v>
+      </c>
+      <c r="B29" s="24"/>
+    </row>
+    <row r="30" spans="1:5" s="48" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="46">
+        <v>107</v>
+      </c>
+      <c r="B30" s="47"/>
+    </row>
+    <row r="31" spans="1:5" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="22">
+        <v>111</v>
+      </c>
+      <c r="B31" s="24"/>
+    </row>
+    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A32" s="22">
+        <v>116</v>
+      </c>
+      <c r="B32" s="24"/>
+    </row>
+    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A33" s="22">
+        <v>117</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="D33" s="45"/>
+    </row>
+    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A34" s="22">
+        <v>199</v>
+      </c>
+      <c r="B34" s="24"/>
+    </row>
+    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A35" s="22">
+        <v>200</v>
+      </c>
+      <c r="B35" s="24"/>
+    </row>
+    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="22">
+        <v>297</v>
+      </c>
+      <c r="B36" s="23"/>
+    </row>
+    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A37" s="22">
+        <v>637</v>
+      </c>
+      <c r="B37" s="24"/>
+    </row>
+    <row r="38" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="22">
+        <v>863</v>
+      </c>
+      <c r="B38" s="35"/>
+    </row>
+    <row r="39" spans="1:5" ht="23" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="31"/>
+    </row>
+    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="22">
+        <v>98</v>
+      </c>
+      <c r="B40" s="35"/>
+    </row>
+    <row r="41" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A41" s="22">
+        <v>100</v>
+      </c>
+      <c r="B41" s="24"/>
+    </row>
+    <row r="42" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A42" s="22">
+        <v>101</v>
+      </c>
+      <c r="B42" s="24"/>
+    </row>
+    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A43" s="22">
+        <v>104</v>
+      </c>
+      <c r="B43" s="24"/>
+    </row>
+    <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A44" s="22">
+        <v>105</v>
+      </c>
+      <c r="B44" s="24"/>
+    </row>
+    <row r="45" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A45" s="22">
+        <v>106</v>
+      </c>
+      <c r="B45" s="24"/>
+    </row>
+    <row r="46" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A46" s="22">
+        <v>108</v>
+      </c>
+      <c r="B46" s="24"/>
+    </row>
+    <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A47" s="22">
+        <v>109</v>
+      </c>
+      <c r="B47" s="24"/>
+    </row>
+    <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A48" s="22">
+        <v>110</v>
+      </c>
+      <c r="B48" s="24"/>
+    </row>
+    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A49" s="22">
+        <v>111</v>
+      </c>
+      <c r="B49" s="24"/>
+    </row>
+    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A50" s="22">
+        <v>112</v>
+      </c>
+      <c r="B50" s="24"/>
+    </row>
+    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A51" s="22">
+        <v>113</v>
+      </c>
+      <c r="B51" s="24"/>
+    </row>
+    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A52" s="22">
+        <v>114</v>
+      </c>
+      <c r="B52" s="35"/>
+    </row>
+    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A53" s="22">
+        <v>116</v>
+      </c>
+      <c r="B53" s="24"/>
+    </row>
+    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="22">
+        <v>117</v>
+      </c>
+      <c r="B54" s="24"/>
+    </row>
+    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A55" s="22">
+        <v>124</v>
+      </c>
+      <c r="B55" s="35"/>
+    </row>
+    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A56" s="22">
+        <v>129</v>
+      </c>
+      <c r="B56" s="24"/>
+    </row>
+    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A57" s="22">
+        <v>130</v>
+      </c>
+      <c r="B57" s="24"/>
+    </row>
+    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A58" s="22">
+        <v>199</v>
+      </c>
+      <c r="B58" s="24"/>
+    </row>
+    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A59" s="22">
+        <v>200</v>
+      </c>
+      <c r="B59" s="24"/>
+    </row>
+    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A60" s="22">
+        <v>207</v>
+      </c>
+      <c r="B60" s="24"/>
+    </row>
+    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A61" s="22">
+        <v>210</v>
+      </c>
+      <c r="B61" s="24"/>
+    </row>
+    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A62" s="22">
+        <v>257</v>
+      </c>
+      <c r="B62" s="24"/>
+    </row>
+    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A63" s="22">
+        <v>332</v>
+      </c>
+      <c r="B63" s="24"/>
+    </row>
+    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A64" s="22">
+        <v>337</v>
+      </c>
+      <c r="B64" s="24"/>
+    </row>
+    <row r="65" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A65" s="22">
+        <v>494</v>
+      </c>
+      <c r="B65" s="54"/>
+    </row>
+    <row r="66" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="22">
+        <v>542</v>
+      </c>
+      <c r="B66" s="24"/>
+    </row>
+    <row r="67" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="22">
+        <v>695</v>
+      </c>
+      <c r="B67" s="24"/>
+    </row>
+    <row r="68" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A68" s="22">
+        <v>733</v>
+      </c>
+      <c r="B68" s="24"/>
+    </row>
+    <row r="69" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A69" s="22">
+        <v>863</v>
+      </c>
+      <c r="B69" s="24"/>
+    </row>
+    <row r="70" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="22">
+        <v>886</v>
+      </c>
+      <c r="B70" s="24"/>
+    </row>
+    <row r="71" spans="1:5" ht="23" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="31"/>
+    </row>
+    <row r="72" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="22">
+        <v>207</v>
+      </c>
+      <c r="B72" s="24"/>
+    </row>
+    <row r="73" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A73" s="22">
+        <v>210</v>
+      </c>
+      <c r="B73" s="24"/>
+    </row>
+    <row r="74" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A74" s="22">
+        <v>332</v>
+      </c>
+      <c r="B74" s="24"/>
+    </row>
+    <row r="75" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A75" s="22">
+        <v>997</v>
+      </c>
+      <c r="B75" s="24"/>
+    </row>
+    <row r="76" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="22">
+        <v>1192</v>
+      </c>
+      <c r="B76" s="24"/>
+    </row>
+    <row r="77" spans="1:5" ht="23" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="31"/>
+    </row>
+    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A78" s="22">
+        <v>56</v>
+      </c>
+      <c r="B78" s="55"/>
+    </row>
+    <row r="79" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A79" s="22">
+        <v>57</v>
+      </c>
+      <c r="B79" s="55"/>
+    </row>
+    <row r="80" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A80" s="22">
+        <v>435</v>
+      </c>
+      <c r="B80" s="55"/>
+    </row>
+    <row r="81" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A81" s="22">
+        <v>452</v>
+      </c>
+      <c r="B81" s="55"/>
+    </row>
+    <row r="82" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="22">
+        <v>986</v>
+      </c>
+      <c r="B82" s="55"/>
+    </row>
+    <row r="83" spans="1:5" ht="23" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="31"/>
+    </row>
+    <row r="84" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A84" s="22">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="22">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="22">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="23" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="31"/>
+    </row>
+    <row r="88" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A88" s="22">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="22">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A90" s="22">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A91" s="22">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="22">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A93" s="22">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A94" s="22">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A95" s="22">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="22">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:5" ht="23" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="31"/>
+    </row>
+    <row r="99" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="22">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A101" s="22">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A102" s="22">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A103" s="22">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A104" s="22">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A105" s="22">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A106" s="22">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="22">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="23" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B108" s="30"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="31"/>
+    </row>
+    <row r="109" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A109" s="22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A110" s="22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A111" s="22">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A112" s="22">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="22">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="23" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="B114" s="30"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="31"/>
+    </row>
+    <row r="115" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A115" s="22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A116" s="22">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A117" s="22">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A118" s="22">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A119" s="22">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A120" s="22">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:5" ht="23" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B122" s="30"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="31"/>
+    </row>
+    <row r="123" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A123" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A124" s="22">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125" s="22">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A126" s="22">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127" s="22">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128" s="22">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A129" s="22">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130" s="22">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A131" s="22">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A132" s="22">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133" s="22">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A134" s="22">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="22">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A136" s="22">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A137" s="22">
+        <v>518</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F03DF64C-CE01-984C-B495-735206B43DD7}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="21"/>
+    <col min="4" max="4" width="10.83203125" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="25">
+        <v>44018</v>
+      </c>
+      <c r="B1" s="26">
+        <v>134</v>
+      </c>
+      <c r="C1" s="28">
+        <v>135</v>
+      </c>
+      <c r="D1" s="26">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="25">
+        <v>44019</v>
+      </c>
+      <c r="B2" s="28">
+        <v>4</v>
+      </c>
+      <c r="C2" s="28">
+        <v>25</v>
+      </c>
+      <c r="D2" s="26">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="25">
+        <v>44020</v>
+      </c>
+      <c r="B3" s="28">
+        <v>115</v>
+      </c>
+      <c r="C3" s="28">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="25">
+        <v>44021</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="25">
+        <v>44022</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="25">
+        <v>44023</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="36"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="25">
+        <v>44024</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="36"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="25">
+        <v>44025</v>
+      </c>
+      <c r="B8" s="28">
+        <v>145</v>
+      </c>
+      <c r="C8" s="50">
+        <v>132</v>
+      </c>
+      <c r="D8" s="28">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="51" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="25">
+        <v>44026</v>
+      </c>
+      <c r="B9" s="28">
+        <v>140</v>
+      </c>
+      <c r="C9" s="28">
+        <v>41</v>
+      </c>
+      <c r="D9" s="27"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="25">
+        <v>44027</v>
+      </c>
+      <c r="B10" s="28">
+        <v>45</v>
+      </c>
+      <c r="C10" s="26">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="25">
+        <v>44189</v>
+      </c>
+      <c r="B11" s="21">
+        <v>300</v>
+      </c>
+      <c r="C11" s="21">
+        <v>303</v>
+      </c>
+      <c r="D11" s="27">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="25">
+        <v>44190</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="21">
+        <v>316</v>
+      </c>
+      <c r="D12" s="52">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="24" x14ac:dyDescent="0.2">
+      <c r="A13" s="25">
+        <v>44191</v>
+      </c>
+      <c r="B13" s="53">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="25">
+        <v>44192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="25">
+        <v>44193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="25">
+        <v>44194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="25">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="25">
+        <v>44196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="25">
+        <v>44197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="25">
+        <v>44198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="25">
+        <v>44199</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35A60059-9776-B34D-B54C-C4A089EF9F04}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="N16" activeCellId="1" sqref="A1 N16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
